--- a/teams.xlsx
+++ b/teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aalmagro/Documents/KSchool/Streaming_002/Amadeus_challenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aalmagro/Documents/KSchool/Streaming_002/Amadeus_challenge/DS_Challenge_Streaming_002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C33BED7E-D73D-4349-ACCF-ABF31B9AAA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C16C7D-AC07-4A44-8AE5-D984E13CF720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teams" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -892,11 +892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>

--- a/teams.xlsx
+++ b/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aalmagro/Documents/KSchool/Streaming_002/Amadeus_challenge/DS_Challenge_Streaming_002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C16C7D-AC07-4A44-8AE5-D984E13CF720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DF6E4D-2E86-1945-9668-DF1E75565665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>num</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>Carlos;Igor;Jorge;Lorenzo</t>
+  </si>
+  <si>
+    <t>Repos</t>
+  </si>
+  <si>
+    <t>github.com/jquibla/DS_Challenge; github.com/ilrei/dschallenge;</t>
+  </si>
+  <si>
+    <t>github.com/andresramosn/ds_challenge; github.com/corti-acs/challenge; github.com/javiicc/DS_Challenge</t>
+  </si>
+  <si>
+    <t>github.com/EOP27/Team-Science-t-ish;  github.com/PaulaCervilla/Data-Science-Challenge---Kschool ;github.com/JavierHernandezSanchez/DataScienceChallenge</t>
   </si>
 </sst>
 </file>
@@ -893,15 +905,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="144" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -917,8 +933,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -931,8 +950,11 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -945,8 +967,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -959,8 +984,15 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://github.com/EOP27/Team-Science-t-ish.git" xr:uid="{61560EA4-CFD4-F549-8A80-7342E3E6FA75}"/>
+    <hyperlink ref="F3" r:id="rId2" display="http://github.com/andresramosn/ds_challenge.git" xr:uid="{98054FAD-9228-8549-8B12-D80F33CA6079}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>